--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:08:58+00:00</t>
+    <t>2023-02-27T08:14:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:14:14+00:00</t>
+    <t>2023-02-27T08:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:19:52+00:00</t>
+    <t>2023-02-27T08:29:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:29:07+00:00</t>
+    <t>2023-02-27T09:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T09:43:15+00:00</t>
+    <t>2023-02-27T10:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:56:39+00:00</t>
+    <t>2023-02-27T10:57:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:57:29+00:00</t>
+    <t>2023-02-27T11:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:03:37+00:00</t>
+    <t>2023-02-27T11:20:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:20:21+00:00</t>
+    <t>2023-02-27T11:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:25:36+00:00</t>
+    <t>2023-02-27T11:32:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:32:09+00:00</t>
+    <t>2023-02-27T11:43:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:43:01+00:00</t>
+    <t>2023-02-28T11:17:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:17:07+00:00</t>
+    <t>2023-02-28T11:22:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:22:14+00:00</t>
+    <t>2023-02-28T11:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:30:20+00:00</t>
+    <t>2023-02-28T14:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T14:52:43+00:00</t>
+    <t>2023-02-28T14:54:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T14:54:29+00:00</t>
+    <t>2023-03-01T07:41:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:41:02+00:00</t>
+    <t>2023-03-01T08:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:28:52+00:00</t>
+    <t>2023-03-01T11:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:03:16+00:00</t>
+    <t>2023-03-01T11:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:04:17+00:00</t>
+    <t>2023-03-01T11:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:23:11+00:00</t>
+    <t>2023-03-01T11:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:24:18+00:00</t>
+    <t>2023-03-01T12:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:12:05+00:00</t>
+    <t>2023-03-01T12:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:13:00+00:00</t>
+    <t>2023-03-01T12:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:21:15+00:00</t>
+    <t>2023-03-01T12:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:22:13+00:00</t>
+    <t>2023-03-01T12:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:32:05+00:00</t>
+    <t>2023-03-01T12:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:48:35+00:00</t>
+    <t>2023-03-01T12:49:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:49:43+00:00</t>
+    <t>2023-03-01T13:04:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:04:01+00:00</t>
+    <t>2023-03-01T13:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:09:29+00:00</t>
+    <t>2023-03-01T13:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:24:40+00:00</t>
+    <t>2023-03-01T13:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:36:33+00:00</t>
+    <t>2023-03-01T13:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:38:18+00:00</t>
+    <t>2023-03-01T14:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T14:07:40+00:00</t>
+    <t>2023-03-01T15:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T15:00:07+00:00</t>
+    <t>2023-03-02T06:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:23+00:00</t>
+    <t>2023-03-02T06:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:53+00:00</t>
+    <t>2023-03-02T06:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:46:56+00:00</t>
+    <t>2023-03-02T06:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:53:26+00:00</t>
+    <t>2023-03-02T07:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T07:03:01+00:00</t>
+    <t>2023-03-02T09:16:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:16:05+00:00</t>
+    <t>2023-03-02T09:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:49:00+00:00</t>
+    <t>2023-03-02T09:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:54:57+00:00</t>
+    <t>2023-03-02T10:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:01:05+00:00</t>
+    <t>2023-03-02T11:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:42:48+00:00</t>
+    <t>2023-03-02T11:49:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:49:40+00:00</t>
+    <t>2023-03-02T11:50:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:50:33+00:00</t>
+    <t>2023-03-02T11:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:57:08+00:00</t>
+    <t>2023-03-02T12:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T12:58:17+00:00</t>
+    <t>2023-03-02T13:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:09:37+00:00</t>
+    <t>2023-03-02T13:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:11:41+00:00</t>
+    <t>2023-03-02T13:30:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:30:18+00:00</t>
+    <t>2023-03-02T13:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:33:11+00:00</t>
+    <t>2023-03-02T16:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:08:14+00:00</t>
+    <t>2023-03-03T11:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:25:12+00:00</t>
+    <t>2023-03-03T12:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:26:43+00:00</t>
+    <t>2023-03-03T12:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:35:01+00:00</t>
+    <t>2023-03-03T12:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:48:46+00:00</t>
+    <t>2023-03-03T12:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:56:42+00:00</t>
+    <t>2023-03-03T14:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:22:20+00:00</t>
+    <t>2023-03-03T14:37:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:37:52+00:00</t>
+    <t>2023-03-03T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:38:52+00:00</t>
+    <t>2023-03-03T14:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:58:49+00:00</t>
+    <t>2023-03-03T15:35:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:35:13+00:00</t>
+    <t>2023-03-03T15:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:45:33+00:00</t>
+    <t>2023-03-03T15:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:51:33+00:00</t>
+    <t>2023-03-04T08:01:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:01:39+00:00</t>
+    <t>2023-03-04T08:04:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:04:04+00:00</t>
+    <t>2023-03-04T08:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:04:34+00:00</t>
+    <t>2023-03-04T08:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:23:50+00:00</t>
+    <t>2023-03-05T10:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T10:47:46+00:00</t>
+    <t>2023-03-05T11:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:22:11+00:00</t>
+    <t>2023-03-05T11:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:37:19+00:00</t>
+    <t>2023-03-05T11:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:45:33+00:00</t>
+    <t>2023-03-06T06:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T06:39:05+00:00</t>
+    <t>2023-03-06T07:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:13:58+00:00</t>
+    <t>2023-03-06T07:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:14:57+00:00</t>
+    <t>2023-03-06T07:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:25:44+00:00</t>
+    <t>2023-03-06T08:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T08:14:15+00:00</t>
+    <t>2023-03-06T09:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T09:54:24+00:00</t>
+    <t>2023-03-06T09:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T09:55:26+00:00</t>
+    <t>2023-03-06T10:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:50:25+00:00</t>
+    <t>2023-03-06T11:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:14:25+00:00</t>
+    <t>2023-03-06T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:09:07+00:00</t>
+    <t>2023-03-06T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:17:43+00:00</t>
+    <t>2023-03-06T13:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:23:19+00:00</t>
+    <t>2023-03-06T13:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:36:35+00:00</t>
+    <t>2023-03-06T13:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:46:45+00:00</t>
+    <t>2023-03-06T13:48:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:48:08+00:00</t>
+    <t>2023-03-06T13:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:58:50+00:00</t>
+    <t>2023-03-06T14:06:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:06:21+00:00</t>
+    <t>2023-03-07T10:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:12:47+00:00</t>
+    <t>2023-03-07T10:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:15:46+00:00</t>
+    <t>2023-03-07T11:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:05:08+00:00</t>
+    <t>2023-03-07T11:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:15:07+00:00</t>
+    <t>2023-03-07T11:33:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:33:22+00:00</t>
+    <t>2023-03-07T11:34:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:34:06+00:00</t>
+    <t>2023-03-07T12:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:11:05+00:00</t>
+    <t>2023-03-07T12:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:18:55+00:00</t>
+    <t>2023-03-07T14:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:32:58+00:00</t>
+    <t>2023-03-07T14:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:40:09+00:00</t>
+    <t>2023-03-07T14:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:56:30+00:00</t>
+    <t>2023-03-07T15:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:06:57+00:00</t>
+    <t>2023-03-07T15:46:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:46:47+00:00</t>
+    <t>2023-03-07T15:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:55:51+00:00</t>
+    <t>2023-03-07T16:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:02:22+00:00</t>
+    <t>2023-03-07T16:10:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:10:56+00:00</t>
+    <t>2023-03-07T16:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:20:26+00:00</t>
+    <t>2023-03-07T16:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:27:46+00:00</t>
+    <t>2023-03-07T16:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:36:29+00:00</t>
+    <t>2023-03-07T16:37:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:37:52+00:00</t>
+    <t>2023-03-07T16:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:59:55+00:00</t>
+    <t>2023-03-07T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:01:28+00:00</t>
+    <t>2023-03-07T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:18:24+00:00</t>
+    <t>2023-03-08T14:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:17:23+00:00</t>
+    <t>2023-03-08T14:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:35:35+00:00</t>
+    <t>2023-03-08T14:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:37:17+00:00</t>
+    <t>2023-03-08T14:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:44:18+00:00</t>
+    <t>2023-03-08T15:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:08:56+00:00</t>
+    <t>2023-03-08T15:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:34+00:00</t>
+    <t>2023-03-08T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:41:32+00:00</t>
+    <t>2023-03-08T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:59:39+00:00</t>
+    <t>2023-03-09T10:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:46:46+00:00</t>
+    <t>2023-03-09T10:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:56:27+00:00</t>
+    <t>2023-03-09T11:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T11:23:43+00:00</t>
+    <t>2023-03-13T09:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T12:30:50+00:00</t>
+    <t>2023-04-04T10:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:44:56+00:00</t>
+    <t>2023-04-04T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:54:05+00:00</t>
+    <t>2023-04-04T11:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
